--- a/Excel/판매.xlsx
+++ b/Excel/판매.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20250176\Computer_Utilization_Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D2F9B-D224-4CF9-8E2C-E6B99E6511E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE7C47-C8A8-42FA-A085-5C17C8C7D2AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" xr2:uid="{EE332BB0-37B9-4757-896A-D1F2C09D497F}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="95">
   <si>
     <t>물품 판매 현황</t>
   </si>
@@ -351,6 +351,10 @@
   </si>
   <si>
     <t>&gt;=3000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -358,9 +362,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -427,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,14 +446,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,33 +786,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3011723C-38CC-403C-BE49-CFF1B10D855C}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="J1" t="s">
         <v>91</v>
       </c>
@@ -833,80 +844,80 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
         <f>VLOOKUP(E4,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H4" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H4" s="4">
         <f>PRODUCT(F4:G4)</f>
-        <v>3750000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4">
         <f>VLOOKUP(E5,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H5" s="5">
+        <v>350000</v>
+      </c>
+      <c r="H5" s="4">
         <f>PRODUCT(F5:G5)</f>
-        <v>3750000</v>
+        <v>2450000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -915,26 +926,26 @@
         <v>13</v>
       </c>
       <c r="F6" s="1">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
         <f>VLOOKUP(E6,단가표,2,FALSE)</f>
         <v>350000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>PRODUCT(F6:G6)</f>
-        <v>3150000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -943,26 +954,26 @@
         <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
         <f>VLOOKUP(E7,단가표,2,FALSE)</f>
         <v>250000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>PRODUCT(F7:G7)</f>
-        <v>2000000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -971,446 +982,446 @@
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
         <f>VLOOKUP(E8,단가표,2,FALSE)</f>
         <v>400000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>PRODUCT(F8:G8)</f>
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
         <f>VLOOKUP(E9,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H9" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H9" s="4">
         <f>PRODUCT(F9:G9)</f>
-        <v>1620000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
         <f>VLOOKUP(E10,단가표,2,FALSE)</f>
-        <v>400000</v>
-      </c>
-      <c r="H10" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H10" s="4">
         <f>PRODUCT(F10:G10)</f>
         <v>1600000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
         <f>VLOOKUP(E11,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H11" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H11" s="4">
         <f>PRODUCT(F11:G11)</f>
-        <v>1080000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
         <f>VLOOKUP(E12,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H12" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H12" s="4">
         <f>PRODUCT(F12:G12)</f>
-        <v>1000000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f>VLOOKUP(E13,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H13" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H13" s="4">
         <f>PRODUCT(F13:G13)</f>
-        <v>1000000</v>
+        <v>1280000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
         <f>VLOOKUP(E14,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H14" s="5">
+        <v>350000</v>
+      </c>
+      <c r="H14" s="4">
         <f>PRODUCT(F14:G14)</f>
-        <v>1000000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
         <f>VLOOKUP(E15,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H15" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H15" s="4">
         <f>PRODUCT(F15:G15)</f>
-        <v>1000000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4">
         <f>VLOOKUP(E16,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H16" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H16" s="8">
         <f>PRODUCT(F16:G16)</f>
-        <v>900000</v>
+        <v>2560000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
         <f>VLOOKUP(E17,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H17" s="5">
+        <v>350000</v>
+      </c>
+      <c r="H17" s="8">
         <f>PRODUCT(F17:G17)</f>
-        <v>900000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
         <f>VLOOKUP(E18,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H18" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H18" s="8">
         <f>PRODUCT(F18:G18)</f>
-        <v>750000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="5">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
         <f>VLOOKUP(E19,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H19" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H19" s="8">
         <f>PRODUCT(F19:G19)</f>
-        <v>750000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="5">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
         <f>VLOOKUP(E20,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H20" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H20" s="8">
         <f>PRODUCT(F20:G20)</f>
-        <v>750000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7">
         <v>5</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f>VLOOKUP(E21,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H21" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H21" s="8">
         <f>PRODUCT(F21:G21)</f>
-        <v>1350000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4">
         <f>VLOOKUP(E22,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H22" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H22" s="8">
         <f>PRODUCT(F22:G22)</f>
-        <v>640000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
+        <v>18</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
         <f>VLOOKUP(E23,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H23" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H23" s="8">
         <f>PRODUCT(F23:G23)</f>
-        <v>300000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1418,55 +1429,55 @@
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="7">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
         <f>VLOOKUP(E24,단가표,2,FALSE)</f>
         <v>270000</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="8">
         <f>PRODUCT(F24:G24)</f>
-        <v>270000</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1">
-        <v>6</v>
-      </c>
-      <c r="G25" s="5">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
         <f>VLOOKUP(E25,단가표,2,FALSE)</f>
-        <v>400000</v>
-      </c>
-      <c r="H25" s="5">
+        <v>350000</v>
+      </c>
+      <c r="H25" s="8">
         <f>PRODUCT(F25:G25)</f>
-        <v>2400000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -1474,83 +1485,83 @@
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
         <f>VLOOKUP(E26,단가표,2,FALSE)</f>
         <v>400000</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="8">
         <f>PRODUCT(F26:G26)</f>
-        <v>2000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
         <f>VLOOKUP(E27,단가표,2,FALSE)</f>
-        <v>400000</v>
-      </c>
-      <c r="H27" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H27" s="8">
         <f>PRODUCT(F27:G27)</f>
-        <v>2000000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5</v>
-      </c>
-      <c r="G28" s="5">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7">
+        <v>12</v>
+      </c>
+      <c r="G28" s="4">
         <f>VLOOKUP(E28,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H28" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H28" s="8">
         <f>PRODUCT(F28:G28)</f>
-        <v>1500000</v>
+        <v>3840000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -1558,83 +1569,83 @@
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="7">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4">
         <f>VLOOKUP(E29,단가표,2,FALSE)</f>
         <v>320000</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="8">
         <f>PRODUCT(F29:G29)</f>
-        <v>960000</v>
+        <v>1920000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30" s="5">
+        <v>18</v>
+      </c>
+      <c r="F30" s="7">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4">
         <f>VLOOKUP(E30,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H30" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H30" s="8">
         <f>PRODUCT(F30:G30)</f>
-        <v>960000</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4">
         <f>VLOOKUP(E31,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H31" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H31" s="8">
         <f>PRODUCT(F31:G31)</f>
-        <v>600000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -1642,21 +1653,21 @@
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="7">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
         <f>VLOOKUP(E32,단가표,2,FALSE)</f>
         <v>300000</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="8">
         <f>PRODUCT(F32:G32)</f>
-        <v>600000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>76</v>
@@ -1665,26 +1676,26 @@
         <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
         <f>VLOOKUP(E33,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H33" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H33" s="8">
         <f>PRODUCT(F33:G33)</f>
-        <v>300000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>76</v>
@@ -1693,26 +1704,26 @@
         <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
+        <v>15</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4">
         <f>VLOOKUP(E34,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H34" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H34" s="8">
         <f>PRODUCT(F34:G34)</f>
-        <v>300000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>76</v>
@@ -1721,26 +1732,26 @@
         <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
         <f>VLOOKUP(E35,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H35" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H35" s="8">
         <f>PRODUCT(F35:G35)</f>
-        <v>270000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>76</v>
@@ -1749,60 +1760,60 @@
         <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
         <f>VLOOKUP(E36,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H36" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H36" s="8">
         <f>PRODUCT(F36:G36)</f>
-        <v>270000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
         <f>VLOOKUP(E37,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H37" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H37" s="8">
         <f>PRODUCT(F37:G37)</f>
-        <v>3840000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
@@ -1810,167 +1821,167 @@
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="1">
-        <v>9</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
         <f>VLOOKUP(E38,단가표,2,FALSE)</f>
         <v>300000</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="8">
         <f>PRODUCT(F38:G38)</f>
-        <v>2700000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1">
-        <v>8</v>
-      </c>
-      <c r="G39" s="5">
+        <v>18</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
         <f>VLOOKUP(E39,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H39" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H39" s="8">
         <f>PRODUCT(F39:G39)</f>
-        <v>2560000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1">
-        <v>7</v>
-      </c>
-      <c r="G40" s="5">
+        <v>18</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
         <f>VLOOKUP(E40,단가표,2,FALSE)</f>
-        <v>350000</v>
-      </c>
-      <c r="H40" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H40" s="8">
         <f>PRODUCT(F40:G40)</f>
-        <v>2450000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1">
+        <v>8</v>
+      </c>
+      <c r="F41" s="7">
         <v>6</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <f>VLOOKUP(E41,단가표,2,FALSE)</f>
-        <v>350000</v>
-      </c>
-      <c r="H41" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H41" s="8">
         <f>PRODUCT(F41:G41)</f>
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1">
-        <v>6</v>
-      </c>
-      <c r="G42" s="5">
+        <v>8</v>
+      </c>
+      <c r="F42" s="7">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4">
         <f>VLOOKUP(E42,단가표,2,FALSE)</f>
-        <v>350000</v>
-      </c>
-      <c r="H42" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H42" s="8">
         <f>PRODUCT(F42:G42)</f>
-        <v>2100000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="1">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7">
         <v>5</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <f>VLOOKUP(E43,단가표,2,FALSE)</f>
-        <v>400000</v>
-      </c>
-      <c r="H43" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H43" s="8">
         <f>PRODUCT(F43:G43)</f>
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -1978,251 +1989,251 @@
       <c r="E44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="1">
-        <v>6</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="7">
+        <v>3</v>
+      </c>
+      <c r="G44" s="4">
         <f>VLOOKUP(E44,단가표,2,FALSE)</f>
         <v>320000</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="8">
         <f>PRODUCT(F44:G44)</f>
-        <v>1920000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6</v>
-      </c>
-      <c r="G45" s="5">
+        <v>18</v>
+      </c>
+      <c r="F45" s="7">
+        <v>5</v>
+      </c>
+      <c r="G45" s="4">
         <f>VLOOKUP(E45,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H45" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H45" s="8">
         <f>PRODUCT(F45:G45)</f>
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="1">
-        <v>7</v>
-      </c>
-      <c r="G46" s="5">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
         <f>VLOOKUP(E46,단가표,2,FALSE)</f>
-        <v>250000</v>
-      </c>
-      <c r="H46" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H46" s="8">
         <f>PRODUCT(F46:G46)</f>
-        <v>1750000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="1">
-        <v>6</v>
-      </c>
-      <c r="G47" s="5">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
         <f>VLOOKUP(E47,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H47" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H47" s="8">
         <f>PRODUCT(F47:G47)</f>
-        <v>1620000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="1">
-        <v>4</v>
-      </c>
-      <c r="G48" s="5">
+        <v>18</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
         <f>VLOOKUP(E48,단가표,2,FALSE)</f>
-        <v>400000</v>
-      </c>
-      <c r="H48" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H48" s="8">
         <f>PRODUCT(F48:G48)</f>
-        <v>1600000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1">
         <v>15</v>
       </c>
-      <c r="F49" s="1">
-        <v>5</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <f>VLOOKUP(E49,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H49" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H49" s="4">
         <f>PRODUCT(F49:G49)</f>
-        <v>1600000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
-      </c>
-      <c r="G50" s="5">
+        <v>15</v>
+      </c>
+      <c r="G50" s="4">
         <f>VLOOKUP(E50,단가표,2,FALSE)</f>
-        <v>400000</v>
-      </c>
-      <c r="H50" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H50" s="4">
         <f>PRODUCT(F50:G50)</f>
-        <v>1600000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1">
-        <v>5</v>
-      </c>
-      <c r="G51" s="5">
+        <v>9</v>
+      </c>
+      <c r="G51" s="4">
         <f>VLOOKUP(E51,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H51" s="5">
+        <v>350000</v>
+      </c>
+      <c r="H51" s="4">
         <f>PRODUCT(F51:G51)</f>
-        <v>1600000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F52" s="1">
-        <v>5</v>
-      </c>
-      <c r="G52" s="5">
+        <v>8</v>
+      </c>
+      <c r="G52" s="4">
         <f>VLOOKUP(E52,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H52" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H52" s="4">
         <f>PRODUCT(F52:G52)</f>
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -2231,351 +2242,351 @@
         <v>8</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
-      </c>
-      <c r="G53" s="5">
+        <v>5</v>
+      </c>
+      <c r="G53" s="4">
         <f>VLOOKUP(E53,단가표,2,FALSE)</f>
         <v>400000</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <f>PRODUCT(F53:G53)</f>
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1">
-        <v>5</v>
-      </c>
-      <c r="G54" s="5">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4">
         <f>VLOOKUP(E54,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H54" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H54" s="4">
         <f>PRODUCT(F54:G54)</f>
-        <v>1600000</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1">
-        <v>5</v>
-      </c>
-      <c r="G55" s="5">
+        <v>4</v>
+      </c>
+      <c r="G55" s="4">
         <f>VLOOKUP(E55,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H55" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H55" s="4">
         <f>PRODUCT(F55:G55)</f>
-        <v>1500000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F56" s="1">
-        <v>5</v>
-      </c>
-      <c r="G56" s="5">
+        <v>4</v>
+      </c>
+      <c r="G56" s="4">
         <f>VLOOKUP(E56,단가표,2,FALSE)</f>
-        <v>300000</v>
-      </c>
-      <c r="H56" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H56" s="4">
         <f>PRODUCT(F56:G56)</f>
-        <v>1500000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F57" s="1">
-        <v>5</v>
-      </c>
-      <c r="G57" s="5">
+        <v>4</v>
+      </c>
+      <c r="G57" s="4">
         <f>VLOOKUP(E57,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H57" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H57" s="4">
         <f>PRODUCT(F57:G57)</f>
-        <v>1350000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F58" s="1">
-        <v>5</v>
-      </c>
-      <c r="G58" s="5">
+        <v>4</v>
+      </c>
+      <c r="G58" s="4">
         <f>VLOOKUP(E58,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H58" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H58" s="4">
         <f>PRODUCT(F58:G58)</f>
-        <v>1350000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1">
         <v>4</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <f>VLOOKUP(E59,단가표,2,FALSE)</f>
-        <v>320000</v>
-      </c>
-      <c r="H59" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H59" s="4">
         <f>PRODUCT(F59:G59)</f>
-        <v>1280000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
-      </c>
-      <c r="G60" s="5">
+        <v>4</v>
+      </c>
+      <c r="G60" s="4">
         <f>VLOOKUP(E60,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H60" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H60" s="4">
         <f>PRODUCT(F60:G60)</f>
-        <v>810000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
-      </c>
-      <c r="G61" s="5">
+        <v>3</v>
+      </c>
+      <c r="G61" s="4">
         <f>VLOOKUP(E61,단가표,2,FALSE)</f>
-        <v>350000</v>
-      </c>
-      <c r="H61" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H61" s="4">
         <f>PRODUCT(F61:G61)</f>
-        <v>700000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
+        <v>3</v>
+      </c>
+      <c r="G62" s="4">
         <f>VLOOKUP(E62,단가표,2,FALSE)</f>
-        <v>400000</v>
-      </c>
-      <c r="H62" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H62" s="4">
         <f>PRODUCT(F62:G62)</f>
-        <v>400000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
+        <v>3</v>
+      </c>
+      <c r="G63" s="4">
         <f>VLOOKUP(E63,단가표,2,FALSE)</f>
-        <v>350000</v>
-      </c>
-      <c r="H63" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H63" s="4">
         <f>PRODUCT(F63:G63)</f>
-        <v>350000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4">
         <f>VLOOKUP(E64,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H64" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H64" s="4">
         <f>PRODUCT(F64:G64)</f>
-        <v>270000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4">
         <f>VLOOKUP(E65,단가표,2,FALSE)</f>
-        <v>270000</v>
-      </c>
-      <c r="H65" s="5">
+        <v>250000</v>
+      </c>
+      <c r="H65" s="4">
         <f>PRODUCT(F65:G65)</f>
-        <v>270000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2623,10 +2634,10 @@
       <c r="F68" s="1">
         <v>12</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <v>320000</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>3840000</v>
       </c>
     </row>
@@ -2649,10 +2660,10 @@
       <c r="F69" s="1">
         <v>15</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>250000</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>3750000</v>
       </c>
     </row>
@@ -2675,10 +2686,10 @@
       <c r="F70" s="1">
         <v>15</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>250000</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>3750000</v>
       </c>
     </row>
@@ -2701,19 +2712,15 @@
       <c r="F71" s="1">
         <v>9</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>350000</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>3150000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H65" xr:uid="{16010CF4-622C-4349-A30E-16D1FD6FA193}">
-    <sortState ref="A4:H65">
-      <sortCondition descending="1" ref="B3:B65"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A3:H65" xr:uid="{AC643AB3-99E2-4396-A3EB-77C90C8823DA}"/>
   <sortState ref="A4:H65">
     <sortCondition ref="B4:B65"/>
     <sortCondition descending="1" ref="H4:H65"/>
@@ -2723,7 +2730,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="수량 오류" error="수량은 양수로 입력하세요." sqref="F4:F65" xr:uid="{EE41273E-2C74-4F6B-BC22-3B214F4100AA}">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="수량 오류" error="수량은 양수로 입력하세요." sqref="F33:F40 F41:F44 F16:F27 F45:F48 F4:F15 F28:F32 F49:F65" xr:uid="{EE41273E-2C74-4F6B-BC22-3B214F4100AA}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2736,7 +2743,7 @@
           <x14:formula1>
             <xm:f>단가표!$A$4:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E65</xm:sqref>
+          <xm:sqref>E33:E40 E41:E44 E16:E27 E45:E48 E4:E15 E28:E32 E49:E65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
